--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1675711.642209546</v>
+        <v>1779891.276660617</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>250.7419974178613</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>61.31988685654932</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498691</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414544</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.5522128412691</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>115.0138334144192</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>375.5601231038233</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.9812949757281</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>127.621635799608</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>63.43291862328049</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>238.3520711215955</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>238.3262268437782</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19.4312450905473</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>5.533415449082397</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>38.76543552488805</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462284</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500083</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238239</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>216.4795114578129</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>145.2692016866627</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>164.8280908524515</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>246.8141177896389</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>220.6143173874693</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>136.7848966149547</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712602</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187894</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>10.63412424768211</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>11.56087338713452</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>105.3219429113324</v>
+        <v>206.7582264966179</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>80.11763046889958</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3430,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419834217</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,10 +3562,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176199</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206849</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>12.96996784159974</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691033</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1944.904841306683</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1575.942324366272</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X2" t="n">
-        <v>2588.318918149022</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y2" t="n">
-        <v>2198.17958617321</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.445961844415</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C4" t="n">
-        <v>349.5097789165081</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D4" t="n">
-        <v>199.3931395041724</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.0944266746548</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1611.50463022939</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1611.50463022939</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1611.50463022939</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883009</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539438</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269324</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.243802269324</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y5" t="n">
-        <v>1998.104470293512</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>511.2489900899279</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C7" t="n">
-        <v>342.312807162021</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>342.312807162021</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201677</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="Y7" t="n">
-        <v>692.8974549201677</v>
+        <v>546.190314257152</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.60683175406</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473096</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>764.3411331473096</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4829,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2768.603843052024</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2437.540955708454</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2084.772300438339</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>1711.306542177259</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>1321.167210201447</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>649.4080837454732</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C10" t="n">
-        <v>480.4719008175663</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>330.3552614052305</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>330.3552614052305</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>183.4653139073202</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>183.4653139073202</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4984,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>723.6118131105845</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>723.6118131105845</v>
       </c>
       <c r="W10" t="n">
-        <v>831.0565485757129</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="X10" t="n">
-        <v>831.0565485757129</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="Y10" t="n">
-        <v>831.0565485757129</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2544.961939527174</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780505039</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381682</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557751</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578647</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578647</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378157</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1978.396372297858</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,13 +5603,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3047.734188001556</v>
+        <v>1097.964082041489</v>
       </c>
       <c r="C19" t="n">
-        <v>2878.798005073649</v>
+        <v>929.0278991135817</v>
       </c>
       <c r="D19" t="n">
-        <v>2728.681365661314</v>
+        <v>778.911259701246</v>
       </c>
       <c r="E19" t="n">
-        <v>2728.681365661314</v>
+        <v>630.9981661188529</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661314</v>
+        <v>484.1082186209425</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>4690.833152398594</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>4471.231687421536</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>4182.156460765734</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>3927.471972559847</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>3678.164782873343</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>3450.175231975326</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="Y19" t="n">
-        <v>3229.382652831796</v>
+        <v>1279.612546871728</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5789,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D22" t="n">
-        <v>2588.787486630498</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>2588.787486630498</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>2588.787486630498</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>2421.591387345378</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>988.4871545236284</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6002,13 +6004,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714565</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872154</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2897.617548589219</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>2728.681365661313</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>2728.681365661313</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4580.826493336715</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4361.225028359656</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>4072.149801703854</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>3817.465313497967</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W25" t="n">
-        <v>3528.048143461006</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X25" t="n">
-        <v>3300.058592562989</v>
+        <v>1457.626301644385</v>
       </c>
       <c r="Y25" t="n">
-        <v>3079.266013419459</v>
+        <v>1236.833722500854</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168638</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403286</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311365</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032296</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2436.221543936137</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="T28" t="n">
-        <v>2185.384895601574</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U28" t="n">
-        <v>1896.309668945771</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V28" t="n">
-        <v>1641.625180739884</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.208010702924</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804906</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613763</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2906.022356843753</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>2737.086173915846</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2586.969534503511</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2586.969534503511</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V31" t="n">
-        <v>3825.870121752501</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>3536.452951715541</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>3308.463400817523</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>3087.670821673993</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2963.443938819528</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>2794.507755891621</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>2794.507755891621</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309228</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309228</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024108</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.9783180535</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4427.051418589965</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4137.976191934163</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3883.291703728276</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3593.874533691315</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3365.884982793298</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>3145.092403649768</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400753</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121684</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998327</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998327</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998327</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510512</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.38585385471</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648823</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611863</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138452</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.502065570315</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,55 +7162,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1360811687887</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121652</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121652</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121652</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,64 +7399,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2433.862105962484</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2251.007271617388</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2031.40580664033</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U43" t="n">
-        <v>1742.330579984527</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V43" t="n">
-        <v>1487.64609177864</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W43" t="n">
-        <v>1198.22892174168</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X43" t="n">
-        <v>1198.22892174168</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192656</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706077</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797193</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.8463580632</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085243</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879356</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443776</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008474</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>128.4813855737398</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891611</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9259388694754023</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>80.4404537023745</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23896,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.6960474398173631</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>39.70888054695206</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194117</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>5.095338001567853</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>43.04708356698259</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>72.1196935303844</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>55.74112246243957</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>205.8445769401537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>146.8157004124956</v>
+        <v>45.37941682721009</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>137.2878198583887</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409392667</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.4052788685219</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882321.2498270525</v>
+        <v>882321.2498270521</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040524</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
@@ -26427,37 +26429,37 @@
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="I4" t="n">
-        <v>15436.64000687959</v>
-      </c>
       <c r="J4" t="n">
-        <v>15436.64000687954</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="O4" t="n">
-        <v>15436.64000687958</v>
-      </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26493,25 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-976072.2357346471</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929456</v>
+        <v>352672.5099929463</v>
       </c>
       <c r="D6" t="n">
-        <v>352672.5099929459</v>
+        <v>352672.5099929458</v>
       </c>
       <c r="E6" t="n">
-        <v>102852.323152612</v>
+        <v>102852.3231526124</v>
       </c>
       <c r="F6" t="n">
-        <v>428264.7849599675</v>
+        <v>428264.7849599671</v>
       </c>
       <c r="G6" t="n">
-        <v>428264.7849599676</v>
+        <v>428264.784959967</v>
       </c>
       <c r="H6" t="n">
         <v>428264.7849599671</v>
       </c>
       <c r="I6" t="n">
-        <v>428264.7849599675</v>
+        <v>428264.7849599671</v>
       </c>
       <c r="J6" t="n">
-        <v>210733.58256269</v>
+        <v>210733.5825626896</v>
       </c>
       <c r="K6" t="n">
         <v>428264.7849599671</v>
       </c>
       <c r="L6" t="n">
-        <v>428264.7849599674</v>
+        <v>428264.784959967</v>
       </c>
       <c r="M6" t="n">
-        <v>343209.7570244553</v>
+        <v>343209.7570244551</v>
       </c>
       <c r="N6" t="n">
-        <v>428264.7849599673</v>
+        <v>428264.784959967</v>
       </c>
       <c r="O6" t="n">
-        <v>428264.7849599676</v>
+        <v>428264.7849599671</v>
       </c>
       <c r="P6" t="n">
-        <v>428264.7849599677</v>
+        <v>428264.7849599671</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.9918442456193</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>308.4112138219197</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-1.762145984685048e-12</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>14.88174980530007</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27594,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>137.1238099094087</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.370246968438437</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>240.2596737416849</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.8123268469612</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>126.3361067081614</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>168.523974620116</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>12.66894511512373</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>125.3237698237735</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>280.6784227565305</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28263,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>153.8606640989142</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32084,31 +32086,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647493</v>
+        <v>620.1193660647502</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>373.3554713800157</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772175</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551095</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162543</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N30" t="n">
-        <v>191.3323016788553</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>193.1175412796302</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532615</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>305.1876769472499</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663289</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N42" t="n">
-        <v>595.3275373121701</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
-        <v>595.3275373121701</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>8.181160134950234</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>477.985332142731</v>
+        <v>477.9853321427319</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>242.0137592966824</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028584537</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075054</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146267</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N30" t="n">
-        <v>59.99058959552202</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>61.77582919629693</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312432</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066284</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>167.3462379728909</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396426</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288368</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288368</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1779891.276660617</v>
+        <v>1775878.666646624</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>61.31988685654932</v>
+        <v>92.47445699814351</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498691</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.57983363107927</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>115.0138334144192</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>310.9299993360286</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.9812949757281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>20.75019519330568</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>63.43291862328049</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>271.0682275916727</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>238.3262268437782</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>5.533415449082397</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>38.76543552488805</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462284</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>35.8864194913595</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238249</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.66004604094911</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>145.2692016866627</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.8280908524515</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>91.89996056624759</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>220.6143173874693</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.7848966149547</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.63412424768211</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>206.7582264966179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>62.36981422367011</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>71.79687029691033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4321,61 +4321,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450755</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X2" t="n">
-        <v>2362.804761797675</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>2362.804761797675</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218345</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218345</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218345</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218345</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962296</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>804.7114165106916</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>515.2942464737309</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218345</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1546.221676928587</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>3105.233036999167</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.5418494269122</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>766.9828934006821</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>766.9828934006821</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>766.9828934006821</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>766.9828934006821</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>766.9828934006821</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>766.9828934006821</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>546.190314257152</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>934.5673701373257</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>1137.401303008948</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>779.1356044021975</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>393.3473518039532</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2768.603843052024</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.540955708454</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.772300438339</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.306542177259</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y8" t="n">
-        <v>1321.167210201447</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="9">
@@ -4886,10 +4886,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.4020639300938</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
@@ -4989,25 +4989,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>723.6118131105845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>723.6118131105845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>434.1946430736239</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>434.1946430736239</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.4020639300938</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913851</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1336.167399417937</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.961939527174</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311989</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780505039</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381682</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557751</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578647</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578647</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026071</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>662.1522880254209</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>493.2161050975141</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851783</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1064.593331999191</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>843.8007528556607</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,16 +5518,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1097.964082041489</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.0278991135817</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>778.911259701246</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>630.9981661188529</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.1082186209425</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1500.405126015258</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1279.612546871728</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,19 +5834,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.8386896933887</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>988.4871545236284</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.4871545236284</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1975.033022579363</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1685.615852542402</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1457.626301644385</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1236.833722500854</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6311,22 +6311,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2436.221543936137</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2253.366709591041</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2253.366709591041</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D31" t="n">
         <v>779.6143379232838</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U31" t="n">
-        <v>2227.361618603201</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6794,13 +6794,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>264.0500279773688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6937,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7183,10 +7183,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7262,19 +7262,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.9786782557277</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2191.586158026164</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1902.510931370362</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1647.826443164475</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1358.409273127515</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.419722229497</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.6271430859674</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>128.4813855737398</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.2980548978846</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>84.77391660562006</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>80.4404537023745</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6960474398173631</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>5.095338001567853</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.04708356698259</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.74112246243957</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>146.5692538725977</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>45.37941682721009</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>142.4141550350971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882321.2498270521</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907546</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="G2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="L2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907537</v>
-      </c>
       <c r="N2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040524</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
@@ -26429,22 +26429,22 @@
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26453,13 +26453,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.2357346471</v>
+        <v>-976072.2357346469</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929463</v>
+        <v>352672.5099929452</v>
       </c>
       <c r="D6" t="n">
         <v>352672.5099929458</v>
       </c>
       <c r="E6" t="n">
-        <v>102852.3231526124</v>
+        <v>102504.9438982552</v>
       </c>
       <c r="F6" t="n">
-        <v>428264.7849599671</v>
+        <v>427917.4057056107</v>
       </c>
       <c r="G6" t="n">
-        <v>428264.784959967</v>
+        <v>427917.40570561</v>
       </c>
       <c r="H6" t="n">
-        <v>428264.7849599671</v>
+        <v>427917.4057056102</v>
       </c>
       <c r="I6" t="n">
-        <v>428264.7849599671</v>
+        <v>427917.4057056103</v>
       </c>
       <c r="J6" t="n">
-        <v>210733.5825626896</v>
+        <v>210386.2033083327</v>
       </c>
       <c r="K6" t="n">
-        <v>428264.7849599671</v>
+        <v>427917.4057056105</v>
       </c>
       <c r="L6" t="n">
-        <v>428264.784959967</v>
+        <v>427917.4057056105</v>
       </c>
       <c r="M6" t="n">
-        <v>343209.7570244551</v>
+        <v>342862.3777700982</v>
       </c>
       <c r="N6" t="n">
-        <v>428264.784959967</v>
+        <v>427917.4057056102</v>
       </c>
       <c r="O6" t="n">
-        <v>428264.7849599671</v>
+        <v>427917.4057056101</v>
       </c>
       <c r="P6" t="n">
-        <v>428264.7849599671</v>
+        <v>427917.4057056103</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,49 +26959,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>308.4112138219197</v>
+        <v>277.2566436803255</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754857</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>137.1238099094087</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>71.00037073623315</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>240.2596737416849</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>159.0817849886316</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>126.3361067081614</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>135.8078181500387</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>12.66894511512373</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>280.6784227565305</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-2.495430374854276e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28265,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28307,7 +28307,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>339.3493584601583</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>153.8606640989142</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647502</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,10 +33271,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33286,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014226</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>200.7949786802841</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.181160134950234</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427319</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1775878.666646624</v>
+        <v>1777639.196949409</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>92.47445699814351</v>
+        <v>133.3353942071046</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363107927</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>75.9484855506643</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>310.9299993360286</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>140.3578935194473</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.75019519330568</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>54.45803047044437</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>271.0682275916727</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>249.5456553076233</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>186.9166231085223</v>
       </c>
       <c r="U13" t="n">
-        <v>35.8864194913595</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238249</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>61.66004604094911</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>91.89996056624759</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298974</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>66.85274231757823</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>34.45703212904686</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>41.55695577161151</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158301</v>
       </c>
     </row>
     <row r="41">
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>62.36981422367011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,31 +4427,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D4" t="n">
         <v>675.2351809199101</v>
@@ -4476,64 +4476,64 @@
         <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535338</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C5" t="n">
-        <v>1904.487375535338</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D5" t="n">
-        <v>1546.221676928587</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,25 +4567,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3073.539503116623</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2742.476615773052</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2389.707960502938</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535338</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1346335501037</v>
+        <v>290.4564109463978</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>121.5202280184909</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4767,10 +4767,10 @@
         <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746549</v>
+        <v>472.1048757766375</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1506.36381994936</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1137.401303008948</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>779.1356044021975</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>393.3473518039532</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3073.539503116623</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>2742.476615773052</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2389.707960502938</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989293</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013481</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4944,67 +4944,67 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
         <v>862.0164446829692</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5193,46 +5193,46 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026071</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
         <v>1936.428221820188</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,13 +5290,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5652,22 +5652,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>481.447947124485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>333.5348535420919</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>186.6449060441816</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2412.158000621627</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2412.158000621627</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>2123.082773965825</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1868.398285759938</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722978</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>444.7013164925216</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>444.7013164925216</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>277.5052172074016</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7933860495997</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7168,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038303</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797704</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631857025</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>30.48882721876595</v>
       </c>
       <c r="U13" t="n">
-        <v>250.2980548978846</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>84.77391660562006</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>65.54986409393064</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>114.1735436840664</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>146.5692538725977</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>39.70888054695403</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>138.4949402405118</v>
       </c>
     </row>
     <row r="41">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270524</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
@@ -26322,40 +26322,40 @@
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907546</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="I2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405253</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405252</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26453,7 +26453,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.2357346469</v>
+        <v>-976072.235734647</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929452</v>
+        <v>352672.5099929455</v>
       </c>
       <c r="D6" t="n">
         <v>352672.5099929458</v>
       </c>
       <c r="E6" t="n">
-        <v>102504.9438982552</v>
+        <v>102817.5852271762</v>
       </c>
       <c r="F6" t="n">
-        <v>427917.4057056107</v>
+        <v>428230.0470345316</v>
       </c>
       <c r="G6" t="n">
-        <v>427917.40570561</v>
+        <v>428230.0470345316</v>
       </c>
       <c r="H6" t="n">
-        <v>427917.4057056102</v>
+        <v>428230.0470345312</v>
       </c>
       <c r="I6" t="n">
-        <v>427917.4057056103</v>
+        <v>428230.0470345314</v>
       </c>
       <c r="J6" t="n">
-        <v>210386.2033083327</v>
+        <v>210698.8446372538</v>
       </c>
       <c r="K6" t="n">
-        <v>427917.4057056105</v>
+        <v>428230.0470345312</v>
       </c>
       <c r="L6" t="n">
-        <v>427917.4057056105</v>
+        <v>428230.0470345312</v>
       </c>
       <c r="M6" t="n">
-        <v>342862.3777700982</v>
+        <v>343175.0190990196</v>
       </c>
       <c r="N6" t="n">
-        <v>427917.4057056102</v>
+        <v>428230.0470345318</v>
       </c>
       <c r="O6" t="n">
-        <v>427917.4057056101</v>
+        <v>428230.0470345314</v>
       </c>
       <c r="P6" t="n">
-        <v>427917.4057056103</v>
+        <v>428230.0470345314</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26962,17 +26962,17 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483759</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>277.2566436803255</v>
+        <v>236.3957064713644</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754857</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>72.66698746754805</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>71.00037073623315</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>110.6372784394547</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.0817849886316</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>94.15744254776799</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>135.8078181500387</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>1.449516651278657</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-2.495430374854276e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28307,7 +28307,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30407,7 +30407,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601583</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33265,28 +33265,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802841</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409631</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
